--- a/ProjectBirdsz/bin/Debug/birds.xlsx
+++ b/ProjectBirdsz/bin/Debug/birds.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guyal\OneDrive\Desktop\FinalPROJECTbirds\ProjectBirdsz\ProjectBirdsz\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0017302D-859F-47D9-B40B-5AC758713ADC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72942792-83DB-437D-A850-3F03BE3EB35A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22905" yWindow="3720" windowWidth="14475" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="גיליון1" sheetId="1" r:id="rId1"/>
@@ -25,25 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
-  <si>
-    <t>Guy</t>
-  </si>
-  <si>
-    <t>Aloosh</t>
-  </si>
-  <si>
-    <t>today</t>
-  </si>
-  <si>
-    <t>man</t>
-  </si>
-  <si>
-    <t>Haliva</t>
-  </si>
-  <si>
-    <t>tomorrow</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>SerialNumber</t>
   </si>
@@ -67,6 +49,24 @@
   </si>
   <si>
     <t>MotherSerialNumber</t>
+  </si>
+  <si>
+    <t>SerialBird</t>
+  </si>
+  <si>
+    <t>Sub Species</t>
+  </si>
+  <si>
+    <t>Date of Bird</t>
+  </si>
+  <si>
+    <t>Cage  Number</t>
+  </si>
+  <si>
+    <t>Father</t>
+  </si>
+  <si>
+    <t>Mother</t>
   </si>
 </sst>
 </file>
@@ -384,7 +384,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
@@ -394,106 +394,80 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" t="s">
+      <c r="H1" t="s">
         <v>7</v>
-      </c>
-      <c r="C1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
       <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-      <c r="H2">
-        <v>1</v>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" t="s">
-        <v>3</v>
+        <v>100</v>
+      </c>
+      <c r="B3">
+        <v>100</v>
+      </c>
+      <c r="C3">
+        <v>100</v>
+      </c>
+      <c r="D3">
+        <v>100</v>
+      </c>
+      <c r="E3">
+        <v>100</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="H3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="H4">
-        <v>2</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/ProjectBirdsz/bin/Debug/birds.xlsx
+++ b/ProjectBirdsz/bin/Debug/birds.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guyal\OneDrive\Desktop\FinalPROJECTbirds\ProjectBirdsz\ProjectBirdsz\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72942792-83DB-437D-A850-3F03BE3EB35A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F84E2BC-DE32-4A36-AB75-4A10B7C9F790}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22905" yWindow="3720" windowWidth="14475" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>SerialNumber</t>
   </si>
@@ -51,22 +51,13 @@
     <t>MotherSerialNumber</t>
   </si>
   <si>
-    <t>SerialBird</t>
-  </si>
-  <si>
-    <t>Sub Species</t>
-  </si>
-  <si>
-    <t>Date of Bird</t>
-  </si>
-  <si>
-    <t>Cage  Number</t>
-  </si>
-  <si>
-    <t>Father</t>
-  </si>
-  <si>
-    <t>Mother</t>
+    <t>Golden</t>
+  </si>
+  <si>
+    <t>Amrican</t>
+  </si>
+  <si>
+    <t>Female</t>
   </si>
 </sst>
 </file>
@@ -102,8 +93,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -384,7 +376,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
@@ -419,55 +411,29 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>8</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
       </c>
       <c r="C2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1">
+        <v>35490</v>
+      </c>
+      <c r="E2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>100</v>
-      </c>
-      <c r="B3">
-        <v>100</v>
-      </c>
-      <c r="C3">
-        <v>100</v>
-      </c>
-      <c r="D3">
-        <v>100</v>
-      </c>
-      <c r="E3">
-        <v>100</v>
-      </c>
-      <c r="F3">
-        <v>100</v>
-      </c>
-      <c r="G3">
-        <v>100</v>
-      </c>
-      <c r="H3">
-        <v>100</v>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>2</v>
+      </c>
+      <c r="H2">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/ProjectBirdsz/bin/Debug/birds.xlsx
+++ b/ProjectBirdsz/bin/Debug/birds.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guyal\OneDrive\Desktop\FinalPROJECTbirds\ProjectBirdsz\ProjectBirdsz\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F84E2BC-DE32-4A36-AB75-4A10B7C9F790}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CE0D105-CC29-4F82-96D9-667DF0567AE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22905" yWindow="3720" windowWidth="14475" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-16200" yWindow="-1905" windowWidth="16410" windowHeight="15210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="גיליון1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="35">
   <si>
     <t>SerialNumber</t>
   </si>
@@ -58,6 +58,78 @@
   </si>
   <si>
     <t>Female</t>
+  </si>
+  <si>
+    <t>25/05/2023</t>
+  </si>
+  <si>
+    <t>Brown</t>
+  </si>
+  <si>
+    <t>SoutAmrican</t>
+  </si>
+  <si>
+    <t>27/09/1996</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>26/05/2023</t>
+  </si>
+  <si>
+    <t>GoldenAustralian</t>
+  </si>
+  <si>
+    <t>Middle</t>
+  </si>
+  <si>
+    <t>15/15/2015</t>
+  </si>
+  <si>
+    <t>GoldenEuropean</t>
+  </si>
+  <si>
+    <t>WestnEurope</t>
+  </si>
+  <si>
+    <t>DataGridViewTextBoxColumn { Name=DateOfBird, Index=3 }</t>
+  </si>
+  <si>
+    <t>GoldenAmrican</t>
+  </si>
+  <si>
+    <t>Eorupe</t>
+  </si>
+  <si>
+    <t>NotrhAmerica</t>
+  </si>
+  <si>
+    <t>Golden European</t>
+  </si>
+  <si>
+    <t>West Europe</t>
+  </si>
+  <si>
+    <t>Golden Amrican</t>
+  </si>
+  <si>
+    <t>Golden Australian</t>
+  </si>
+  <si>
+    <t>Coastal cities</t>
+  </si>
+  <si>
+    <t>System.Windows.Forms.Label, Text: Strain</t>
+  </si>
+  <si>
+    <t>East Europe</t>
+  </si>
+  <si>
+    <t>Central Australia</t>
+  </si>
+  <si>
+    <t>South America</t>
   </si>
 </sst>
 </file>
@@ -376,13 +448,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
-    </sheetView>
+    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="11.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -415,28 +488,499 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="1">
+        <v>44929</v>
+      </c>
+      <c r="E2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2">
+        <v>12</v>
+      </c>
+      <c r="G2">
+        <v>12</v>
+      </c>
+      <c r="H2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C3" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D3" s="1">
         <v>35490</v>
       </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2">
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3">
         <v>1</v>
       </c>
-      <c r="G2">
+      <c r="H3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4">
         <v>2</v>
       </c>
-      <c r="H2">
+      <c r="G4">
         <v>2</v>
       </c>
+      <c r="H4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5">
+        <v>3</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6">
+        <v>3</v>
+      </c>
+      <c r="G6">
+        <v>4</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7">
+        <v>12</v>
+      </c>
+      <c r="G7">
+        <v>2</v>
+      </c>
+      <c r="H7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8">
+        <v>5</v>
+      </c>
+      <c r="G8">
+        <v>12</v>
+      </c>
+      <c r="H8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="1">
+        <v>45027</v>
+      </c>
+      <c r="E9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9">
+        <v>4</v>
+      </c>
+      <c r="G9">
+        <v>5</v>
+      </c>
+      <c r="H9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="1">
+        <v>45048</v>
+      </c>
+      <c r="E10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10">
+        <v>9</v>
+      </c>
+      <c r="G10">
+        <v>9</v>
+      </c>
+      <c r="H10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="1">
+        <v>44985</v>
+      </c>
+      <c r="E11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11">
+        <v>10</v>
+      </c>
+      <c r="G11">
+        <v>10</v>
+      </c>
+      <c r="H11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="1">
+        <v>43866</v>
+      </c>
+      <c r="E12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12">
+        <v>13</v>
+      </c>
+      <c r="G12">
+        <v>13</v>
+      </c>
+      <c r="H12">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="1">
+        <v>45127</v>
+      </c>
+      <c r="E13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13">
+        <v>15</v>
+      </c>
+      <c r="G13">
+        <v>15</v>
+      </c>
+      <c r="H13">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="1">
+        <v>45047</v>
+      </c>
+      <c r="E14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14">
+        <v>13</v>
+      </c>
+      <c r="G14">
+        <v>13</v>
+      </c>
+      <c r="H14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="1">
+        <v>45048</v>
+      </c>
+      <c r="E15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15">
+        <v>4</v>
+      </c>
+      <c r="G15">
+        <v>14</v>
+      </c>
+      <c r="H15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" s="1">
+        <v>45074</v>
+      </c>
+      <c r="E16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16">
+        <v>4</v>
+      </c>
+      <c r="G16">
+        <v>15</v>
+      </c>
+      <c r="H16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>55</v>
+      </c>
+      <c r="B17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" s="1">
+        <v>45074</v>
+      </c>
+      <c r="E17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17">
+        <v>4</v>
+      </c>
+      <c r="G17">
+        <v>32</v>
+      </c>
+      <c r="H17">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>95</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" s="1">
+        <v>45055</v>
+      </c>
+      <c r="E18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18">
+        <v>4</v>
+      </c>
+      <c r="G18">
+        <v>2</v>
+      </c>
+      <c r="H18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>122</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" s="1">
+        <v>45067</v>
+      </c>
+      <c r="E19" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19">
+        <v>3</v>
+      </c>
+      <c r="G19">
+        <v>33</v>
+      </c>
+      <c r="H19">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>64</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" s="1">
+        <v>45053</v>
+      </c>
+      <c r="E20" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20">
+        <v>3</v>
+      </c>
+      <c r="G20">
+        <v>2</v>
+      </c>
+      <c r="H20">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H19">
+    <sortCondition ref="A2:A19"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/ProjectBirdsz/bin/Debug/birds.xlsx
+++ b/ProjectBirdsz/bin/Debug/birds.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guyal\OneDrive\Desktop\FinalPROJECTbirds\ProjectBirdsz\ProjectBirdsz\bin\Debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\orelh\Source\Repos\NewBirds\ProjectBirdsz\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CE0D105-CC29-4F82-96D9-667DF0567AE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F623418-C478-408B-B15A-A3ED10023286}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16200" yWindow="-1905" windowWidth="16410" windowHeight="15210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="גיליון1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="35">
   <si>
     <t>SerialNumber</t>
   </si>
@@ -448,70 +448,72 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0"/>
+    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="11.28515625" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1">
+        <v>1</v>
       </c>
       <c r="B1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="1">
+        <v>44929</v>
+      </c>
+      <c r="E1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1">
+        <v>12</v>
+      </c>
+      <c r="G1">
+        <v>12</v>
+      </c>
+      <c r="H1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="1">
+        <v>35490</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+      <c r="G2">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="H2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3">
         <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D2" s="1">
-        <v>44929</v>
-      </c>
-      <c r="E2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2">
-        <v>12</v>
-      </c>
-      <c r="G2">
-        <v>12</v>
-      </c>
-      <c r="H2">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
@@ -519,8 +521,8 @@
       <c r="C3" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="1">
-        <v>35490</v>
+      <c r="D3" t="s">
+        <v>11</v>
       </c>
       <c r="E3" t="s">
         <v>10</v>
@@ -529,41 +531,41 @@
         <v>2</v>
       </c>
       <c r="G3">
+        <v>2</v>
+      </c>
+      <c r="H3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4">
+        <v>3</v>
+      </c>
+      <c r="G4">
         <v>1</v>
       </c>
-      <c r="H3">
+      <c r="H4">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4">
-        <v>2</v>
-      </c>
-      <c r="G4">
-        <v>2</v>
-      </c>
-      <c r="H4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
         <v>12</v>
@@ -572,154 +574,154 @@
         <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E5" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F5">
         <v>3</v>
       </c>
       <c r="G5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6">
+        <v>12</v>
+      </c>
+      <c r="G6">
+        <v>2</v>
+      </c>
+      <c r="H6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6">
-        <v>3</v>
-      </c>
-      <c r="G6">
-        <v>4</v>
-      </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7">
-        <v>12</v>
-      </c>
       <c r="G7">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="H7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" t="s">
-        <v>22</v>
+        <v>24</v>
+      </c>
+      <c r="D8" s="1">
+        <v>45027</v>
       </c>
       <c r="E8" t="s">
         <v>15</v>
       </c>
       <c r="F8">
+        <v>4</v>
+      </c>
+      <c r="G8">
         <v>5</v>
       </c>
-      <c r="G8">
-        <v>12</v>
-      </c>
       <c r="H8">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" s="1">
-        <v>45027</v>
+        <v>45048</v>
       </c>
       <c r="E9" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F9">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G9">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="H9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D10" s="1">
-        <v>45048</v>
+        <v>44985</v>
       </c>
       <c r="E10" t="s">
         <v>10</v>
       </c>
       <c r="F10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H10">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -728,111 +730,111 @@
         <v>27</v>
       </c>
       <c r="D11" s="1">
-        <v>44985</v>
+        <v>43866</v>
       </c>
       <c r="E11" t="s">
         <v>10</v>
       </c>
       <c r="F11">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G11">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H11">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="1">
+        <v>45127</v>
+      </c>
+      <c r="E12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12">
+        <v>15</v>
+      </c>
+      <c r="G12">
+        <v>15</v>
+      </c>
+      <c r="H12">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
         <v>26</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C13" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="1">
-        <v>43866</v>
-      </c>
-      <c r="E12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12">
+      <c r="D13" s="1">
+        <v>45047</v>
+      </c>
+      <c r="E13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13">
         <v>13</v>
       </c>
-      <c r="G12">
+      <c r="G13">
         <v>13</v>
       </c>
-      <c r="H12">
+      <c r="H13">
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" t="s">
-        <v>32</v>
-      </c>
-      <c r="D13" s="1">
-        <v>45127</v>
-      </c>
-      <c r="E13" t="s">
-        <v>10</v>
-      </c>
-      <c r="F13">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="1">
+        <v>45048</v>
+      </c>
+      <c r="E14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14">
+        <v>4</v>
+      </c>
+      <c r="G14">
+        <v>14</v>
+      </c>
+      <c r="H14">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15">
         <v>15</v>
       </c>
-      <c r="G13">
-        <v>15</v>
-      </c>
-      <c r="H13">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
+      <c r="B15" t="s">
         <v>26</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C15" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="1">
-        <v>45047</v>
-      </c>
-      <c r="E14" t="s">
-        <v>10</v>
-      </c>
-      <c r="F14">
-        <v>13</v>
-      </c>
-      <c r="G14">
-        <v>13</v>
-      </c>
-      <c r="H14">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" t="s">
-        <v>34</v>
-      </c>
       <c r="D15" s="1">
-        <v>45048</v>
+        <v>45074</v>
       </c>
       <c r="E15" t="s">
         <v>10</v>
@@ -841,50 +843,50 @@
         <v>4</v>
       </c>
       <c r="G15">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H15">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16">
+        <v>16</v>
+      </c>
+      <c r="B16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" s="1">
+        <v>45075</v>
+      </c>
+      <c r="E16" t="s">
         <v>15</v>
-      </c>
-      <c r="B16" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" s="1">
-        <v>45074</v>
-      </c>
-      <c r="E16" t="s">
-        <v>10</v>
       </c>
       <c r="F16">
         <v>4</v>
       </c>
       <c r="G16">
-        <v>15</v>
+        <v>1212</v>
       </c>
       <c r="H16">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="B17" t="s">
         <v>29</v>
       </c>
       <c r="C17" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D17" s="1">
-        <v>45074</v>
+        <v>45075</v>
       </c>
       <c r="E17" t="s">
         <v>10</v>
@@ -893,15 +895,15 @@
         <v>4</v>
       </c>
       <c r="G17">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="H17">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>95</v>
+        <v>18</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -910,48 +912,48 @@
         <v>27</v>
       </c>
       <c r="D18" s="1">
-        <v>45055</v>
+        <v>45075</v>
       </c>
       <c r="E18" t="s">
         <v>10</v>
       </c>
       <c r="F18">
+        <v>2</v>
+      </c>
+      <c r="G18">
+        <v>12</v>
+      </c>
+      <c r="H18">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>55</v>
+      </c>
+      <c r="B19" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19" s="1">
+        <v>45074</v>
+      </c>
+      <c r="E19" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19">
         <v>4</v>
       </c>
-      <c r="G18">
-        <v>2</v>
-      </c>
-      <c r="H18">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>122</v>
-      </c>
-      <c r="B19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" s="1">
-        <v>45067</v>
-      </c>
-      <c r="E19" t="s">
-        <v>10</v>
-      </c>
-      <c r="F19">
-        <v>3</v>
-      </c>
       <c r="G19">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H19">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>64</v>
       </c>
@@ -977,9 +979,87 @@
         <v>2</v>
       </c>
     </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>95</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" s="1">
+        <v>45055</v>
+      </c>
+      <c r="E21" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21">
+        <v>4</v>
+      </c>
+      <c r="G21">
+        <v>2</v>
+      </c>
+      <c r="H21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>122</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" s="1">
+        <v>45067</v>
+      </c>
+      <c r="E22" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22">
+        <v>3</v>
+      </c>
+      <c r="G22">
+        <v>33</v>
+      </c>
+      <c r="H22">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>2</v>
+      </c>
+      <c r="D23" t="s">
+        <v>3</v>
+      </c>
+      <c r="E23" t="s">
+        <v>4</v>
+      </c>
+      <c r="F23" t="s">
+        <v>5</v>
+      </c>
+      <c r="G23" t="s">
+        <v>6</v>
+      </c>
+      <c r="H23" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H19">
-    <sortCondition ref="A2:A19"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:H23">
+    <sortCondition ref="A1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ProjectBirdsz/bin/Debug/birds.xlsx
+++ b/ProjectBirdsz/bin/Debug/birds.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\orelh\Source\Repos\NewBirds\ProjectBirdsz\bin\Debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guyal\Source\Repos\NewBirds\ProjectBirdsz\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F623418-C478-408B-B15A-A3ED10023286}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B352428-02EA-4E3E-9191-D3F464C0A4B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3675" yWindow="3675" windowWidth="21600" windowHeight="11452" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="גיליון1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="35">
   <si>
     <t>SerialNumber</t>
   </si>
@@ -448,72 +448,72 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="4" max="4" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
-        <v>29</v>
-      </c>
       <c r="C1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D1" s="1">
-        <v>44929</v>
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F1">
-        <v>12</v>
-      </c>
-      <c r="G1">
-        <v>12</v>
-      </c>
-      <c r="H1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="D2" s="1">
-        <v>35490</v>
+        <v>45047</v>
       </c>
       <c r="E2" t="s">
         <v>10</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="H2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
@@ -521,8 +521,8 @@
       <c r="C3" t="s">
         <v>9</v>
       </c>
-      <c r="D3" t="s">
-        <v>11</v>
+      <c r="D3" s="1">
+        <v>35490</v>
       </c>
       <c r="E3" t="s">
         <v>10</v>
@@ -531,41 +531,41 @@
         <v>2</v>
       </c>
       <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4">
         <v>2</v>
       </c>
-      <c r="H3">
+      <c r="G4">
+        <v>2</v>
+      </c>
+      <c r="H4">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A5">
         <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4">
-        <v>3</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>5</v>
       </c>
       <c r="B5" t="s">
         <v>12</v>
@@ -574,154 +574,154 @@
         <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F5">
         <v>3</v>
       </c>
       <c r="G5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6">
+        <v>3</v>
+      </c>
+      <c r="G6">
+        <v>4</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A7">
         <v>6</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
         <v>17</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C7" t="s">
         <v>18</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D7" t="s">
         <v>19</v>
       </c>
-      <c r="E6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6">
+      <c r="E7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7">
         <v>12</v>
       </c>
-      <c r="G6">
+      <c r="G7">
         <v>2</v>
       </c>
-      <c r="H6">
+      <c r="H7">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A8">
         <v>7</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
         <v>20</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C8" t="s">
         <v>21</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D8" t="s">
         <v>22</v>
-      </c>
-      <c r="E7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7">
-        <v>5</v>
-      </c>
-      <c r="G7">
-        <v>12</v>
-      </c>
-      <c r="H7">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="1">
-        <v>45027</v>
       </c>
       <c r="E8" t="s">
         <v>15</v>
       </c>
       <c r="F8">
+        <v>5</v>
+      </c>
+      <c r="G8">
+        <v>12</v>
+      </c>
+      <c r="H8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="1">
+        <v>45027</v>
+      </c>
+      <c r="E9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9">
         <v>4</v>
       </c>
-      <c r="G8">
+      <c r="G9">
         <v>5</v>
       </c>
-      <c r="H8">
+      <c r="H9">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A10">
         <v>9</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
         <v>28</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C10" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D10" s="1">
         <v>45048</v>
       </c>
-      <c r="E9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9">
+      <c r="E10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10">
         <v>9</v>
       </c>
-      <c r="G9">
+      <c r="G10">
         <v>9</v>
       </c>
-      <c r="H9">
+      <c r="H10">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" s="1">
-        <v>44985</v>
-      </c>
-      <c r="E10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10">
-        <v>10</v>
-      </c>
-      <c r="G10">
-        <v>10</v>
-      </c>
-      <c r="H10">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A11">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -730,111 +730,111 @@
         <v>27</v>
       </c>
       <c r="D11" s="1">
+        <v>44985</v>
+      </c>
+      <c r="E11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11">
+        <v>10</v>
+      </c>
+      <c r="G11">
+        <v>10</v>
+      </c>
+      <c r="H11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="1">
         <v>43866</v>
       </c>
-      <c r="E11" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11">
+      <c r="E12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12">
         <v>13</v>
       </c>
-      <c r="G11">
+      <c r="G12">
         <v>13</v>
       </c>
-      <c r="H11">
+      <c r="H12">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A13">
         <v>12</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B13" t="s">
         <v>31</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C13" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D13" s="1">
         <v>45127</v>
       </c>
-      <c r="E12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12">
+      <c r="E13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13">
         <v>15</v>
       </c>
-      <c r="G12">
+      <c r="G13">
         <v>15</v>
       </c>
-      <c r="H12">
+      <c r="H13">
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A14">
         <v>13</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" t="s">
         <v>26</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C14" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D14" s="1">
         <v>45047</v>
       </c>
-      <c r="E13" t="s">
-        <v>10</v>
-      </c>
-      <c r="F13">
+      <c r="E14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14">
         <v>13</v>
       </c>
-      <c r="G13">
+      <c r="G14">
         <v>13</v>
       </c>
-      <c r="H13">
+      <c r="H14">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A15">
         <v>14</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B15" t="s">
         <v>28</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C15" t="s">
         <v>34</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D15" s="1">
         <v>45048</v>
-      </c>
-      <c r="E14" t="s">
-        <v>10</v>
-      </c>
-      <c r="F14">
-        <v>4</v>
-      </c>
-      <c r="G14">
-        <v>14</v>
-      </c>
-      <c r="H14">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>15</v>
-      </c>
-      <c r="B15" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" s="1">
-        <v>45074</v>
       </c>
       <c r="E15" t="s">
         <v>10</v>
@@ -843,73 +843,73 @@
         <v>4</v>
       </c>
       <c r="G15">
+        <v>14</v>
+      </c>
+      <c r="H15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A16">
         <v>15</v>
       </c>
-      <c r="H15">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>16</v>
-      </c>
       <c r="B16" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D16" s="1">
-        <v>45075</v>
+        <v>45074</v>
       </c>
       <c r="E16" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F16">
         <v>4</v>
       </c>
       <c r="G16">
-        <v>1212</v>
+        <v>15</v>
       </c>
       <c r="H16">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A17">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C17" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D17" s="1">
         <v>45075</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F17">
         <v>4</v>
       </c>
       <c r="G17">
-        <v>12</v>
+        <v>1212</v>
       </c>
       <c r="H17">
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A18">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C18" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D18" s="1">
         <v>45075</v>
@@ -918,7 +918,7 @@
         <v>10</v>
       </c>
       <c r="F18">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G18">
         <v>12</v>
@@ -927,139 +927,191 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A19">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" s="1">
+        <v>45075</v>
+      </c>
+      <c r="E19" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19">
+        <v>2</v>
+      </c>
+      <c r="G19">
+        <v>12</v>
+      </c>
+      <c r="H19">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A20">
+        <v>31</v>
+      </c>
+      <c r="B20" t="s">
         <v>29</v>
       </c>
-      <c r="C19" t="s">
-        <v>33</v>
-      </c>
-      <c r="D19" s="1">
-        <v>45074</v>
-      </c>
-      <c r="E19" t="s">
-        <v>10</v>
-      </c>
-      <c r="F19">
-        <v>4</v>
-      </c>
-      <c r="G19">
+      <c r="C20" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20" s="1">
+        <v>45054</v>
+      </c>
+      <c r="E20" t="s">
+        <v>15</v>
+      </c>
+      <c r="F20">
+        <v>2</v>
+      </c>
+      <c r="G20">
+        <v>13</v>
+      </c>
+      <c r="H20">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A21">
         <v>32</v>
-      </c>
-      <c r="H19">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>64</v>
-      </c>
-      <c r="B20" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20" t="s">
-        <v>27</v>
-      </c>
-      <c r="D20" s="1">
-        <v>45053</v>
-      </c>
-      <c r="E20" t="s">
-        <v>10</v>
-      </c>
-      <c r="F20">
-        <v>3</v>
-      </c>
-      <c r="G20">
-        <v>2</v>
-      </c>
-      <c r="H20">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>95</v>
       </c>
       <c r="B21" t="s">
         <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D21" s="1">
-        <v>45055</v>
+        <v>45047</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F21">
         <v>4</v>
       </c>
       <c r="G21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H21">
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A22">
+        <v>55</v>
+      </c>
+      <c r="B22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" t="s">
+        <v>33</v>
+      </c>
+      <c r="D22" s="1">
+        <v>45074</v>
+      </c>
+      <c r="E22" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22">
+        <v>4</v>
+      </c>
+      <c r="G22">
+        <v>32</v>
+      </c>
+      <c r="H22">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A23">
+        <v>64</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" s="1">
+        <v>45053</v>
+      </c>
+      <c r="E23" t="s">
+        <v>10</v>
+      </c>
+      <c r="F23">
+        <v>3</v>
+      </c>
+      <c r="G23">
+        <v>2</v>
+      </c>
+      <c r="H23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A24">
+        <v>95</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" s="1">
+        <v>45055</v>
+      </c>
+      <c r="E24" t="s">
+        <v>10</v>
+      </c>
+      <c r="F24">
+        <v>4</v>
+      </c>
+      <c r="G24">
+        <v>2</v>
+      </c>
+      <c r="H24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A25">
         <v>122</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B25" t="s">
         <v>26</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C25" t="s">
         <v>27</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D25" s="1">
         <v>45067</v>
       </c>
-      <c r="E22" t="s">
-        <v>10</v>
-      </c>
-      <c r="F22">
+      <c r="E25" t="s">
+        <v>10</v>
+      </c>
+      <c r="F25">
         <v>3</v>
       </c>
-      <c r="G22">
+      <c r="G25">
         <v>33</v>
       </c>
-      <c r="H22">
+      <c r="H25">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>0</v>
-      </c>
-      <c r="B23" t="s">
-        <v>1</v>
-      </c>
-      <c r="C23" t="s">
-        <v>2</v>
-      </c>
-      <c r="D23" t="s">
-        <v>3</v>
-      </c>
-      <c r="E23" t="s">
-        <v>4</v>
-      </c>
-      <c r="F23" t="s">
-        <v>5</v>
-      </c>
-      <c r="G23" t="s">
-        <v>6</v>
-      </c>
-      <c r="H23" t="s">
-        <v>7</v>
-      </c>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:H23">
-    <sortCondition ref="A1"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H25">
+    <sortCondition ref="A2"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ProjectBirdsz/bin/Debug/birds.xlsx
+++ b/ProjectBirdsz/bin/Debug/birds.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guyal\Source\Repos\NewBirds\ProjectBirdsz\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B352428-02EA-4E3E-9191-D3F464C0A4B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC125843-D71A-43FD-8A0C-198CA6A1BFA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3675" yWindow="3675" windowWidth="21600" windowHeight="11452" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="35">
   <si>
     <t>SerialNumber</t>
   </si>
@@ -448,7 +448,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
       <selection activeCell="I20" sqref="I20"/>
@@ -487,25 +487,25 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="1">
+        <v>35490</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+      <c r="G2">
         <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D2" s="1">
-        <v>45047</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2">
-        <v>4</v>
-      </c>
-      <c r="G2">
-        <v>31</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -513,7 +513,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
@@ -521,8 +521,8 @@
       <c r="C3" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="1">
-        <v>35490</v>
+      <c r="D3" t="s">
+        <v>11</v>
       </c>
       <c r="E3" t="s">
         <v>10</v>
@@ -531,41 +531,41 @@
         <v>2</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4">
-        <v>2</v>
-      </c>
       <c r="G4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H4">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
         <v>12</v>
@@ -574,16 +574,16 @@
         <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E5" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F5">
         <v>3</v>
       </c>
       <c r="G5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -591,137 +591,137 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6">
         <v>12</v>
       </c>
-      <c r="C6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6">
+      <c r="G6">
+        <v>2</v>
+      </c>
+      <c r="H6">
         <v>3</v>
-      </c>
-      <c r="G6">
-        <v>4</v>
-      </c>
-      <c r="H6">
-        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D7" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F7">
+        <v>5</v>
+      </c>
+      <c r="G7">
         <v>12</v>
       </c>
-      <c r="G7">
-        <v>2</v>
-      </c>
       <c r="H7">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" t="s">
-        <v>22</v>
+        <v>24</v>
+      </c>
+      <c r="D8" s="1">
+        <v>45027</v>
       </c>
       <c r="E8" t="s">
         <v>15</v>
       </c>
       <c r="F8">
+        <v>4</v>
+      </c>
+      <c r="G8">
         <v>5</v>
       </c>
-      <c r="G8">
-        <v>12</v>
-      </c>
       <c r="H8">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A9">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" s="1">
-        <v>45027</v>
+        <v>45048</v>
       </c>
       <c r="E9" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F9">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G9">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="H9">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D10" s="1">
-        <v>45048</v>
+        <v>44985</v>
       </c>
       <c r="E10" t="s">
         <v>10</v>
       </c>
       <c r="F10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H10">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A11">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -730,111 +730,111 @@
         <v>27</v>
       </c>
       <c r="D11" s="1">
-        <v>44985</v>
+        <v>43866</v>
       </c>
       <c r="E11" t="s">
         <v>10</v>
       </c>
       <c r="F11">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G11">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H11">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A12">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D12" s="1">
-        <v>43866</v>
+        <v>45127</v>
       </c>
       <c r="E12" t="s">
         <v>10</v>
       </c>
       <c r="F12">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G12">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H12">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A13">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D13" s="1">
-        <v>45127</v>
+        <v>45047</v>
       </c>
       <c r="E13" t="s">
         <v>10</v>
       </c>
       <c r="F13">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G13">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H13">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A14">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="D14" s="1">
-        <v>45047</v>
+        <v>45048</v>
       </c>
       <c r="E14" t="s">
         <v>10</v>
       </c>
       <c r="F14">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="G14">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H14">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A15">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D15" s="1">
-        <v>45048</v>
+        <v>45074</v>
       </c>
       <c r="E15" t="s">
         <v>10</v>
@@ -843,59 +843,59 @@
         <v>4</v>
       </c>
       <c r="G15">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H15">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A16">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C16" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="D16" s="1">
-        <v>45074</v>
+        <v>45075</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F16">
         <v>4</v>
       </c>
       <c r="G16">
-        <v>15</v>
+        <v>1212</v>
       </c>
       <c r="H16">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A17">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C17" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D17" s="1">
         <v>45075</v>
       </c>
       <c r="E17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F17">
         <v>4</v>
       </c>
       <c r="G17">
-        <v>1212</v>
+        <v>12</v>
       </c>
       <c r="H17">
         <v>12</v>
@@ -903,13 +903,13 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A18">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D18" s="1">
         <v>45075</v>
@@ -918,7 +918,7 @@
         <v>10</v>
       </c>
       <c r="F18">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G18">
         <v>12</v>
@@ -929,59 +929,59 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A19">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C19" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D19" s="1">
-        <v>45075</v>
+        <v>45054</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F19">
         <v>2</v>
       </c>
       <c r="G19">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H19">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A20">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B20" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D20" s="1">
-        <v>45054</v>
+        <v>45047</v>
       </c>
       <c r="E20" t="s">
         <v>15</v>
       </c>
       <c r="F20">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G20">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="H20">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A21">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="B21" t="s">
         <v>26</v>
@@ -999,10 +999,10 @@
         <v>4</v>
       </c>
       <c r="G21">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="H21">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.45">
@@ -1109,8 +1109,31 @@
         <v>21</v>
       </c>
     </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A26">
+        <v>123</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>32</v>
+      </c>
+      <c r="D26" s="1">
+        <v>45076</v>
+      </c>
+      <c r="F26">
+        <v>3</v>
+      </c>
+      <c r="G26">
+        <v>2</v>
+      </c>
+      <c r="H26">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H25">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H26">
     <sortCondition ref="A2"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ProjectBirdsz/bin/Debug/birds.xlsx
+++ b/ProjectBirdsz/bin/Debug/birds.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="חוברת_עבודה_זו"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guyal\Source\Repos\NewBirds\ProjectBirdsz\bin\Debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guyal\source\repos\NewBirds\ProjectBirdsz\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6CEB081-3382-47A2-8D59-C13810AE3826}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1D1C4D4-E8DF-40CC-91EC-893A23968206}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="גיליון1" sheetId="1" r:id="rId1"/>
@@ -397,7 +397,7 @@
   <sheetPr codeName="גיליון1"/>
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>

--- a/ProjectBirdsz/bin/Debug/birds.xlsx
+++ b/ProjectBirdsz/bin/Debug/birds.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="חוברת_עבודה_זו"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guyal\source\repos\NewBirds\ProjectBirdsz\bin\Debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guyal\Source\Repos\NewBirds\ProjectBirdsz\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1D1C4D4-E8DF-40CC-91EC-893A23968206}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEBF9A90-150D-4FA0-B21F-FC22D92679E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="גיליון1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="17">
   <si>
     <t>SerialNumber</t>
   </si>
@@ -66,16 +66,16 @@
     <t>Golden Amrican</t>
   </si>
   <si>
-    <t>Notrh America</t>
+    <t>West Europe</t>
+  </si>
+  <si>
+    <t>Central America</t>
   </si>
   <si>
     <t xml:space="preserve">Golden Australian </t>
   </si>
   <si>
     <t>Coastal cities</t>
-  </si>
-  <si>
-    <t>West Europe</t>
   </si>
 </sst>
 </file>
@@ -395,7 +395,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="גיליון1"/>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H1" sqref="H1"/>
@@ -439,33 +439,33 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D2" s="1">
-        <v>45054</v>
+        <v>45077</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
@@ -477,7 +477,7 @@
         <v>45077</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -486,18 +486,18 @@
         <v>3</v>
       </c>
       <c r="H3">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D4" s="1">
         <v>45077</v>
@@ -506,10 +506,10 @@
         <v>11</v>
       </c>
       <c r="F4">
+        <v>4</v>
+      </c>
+      <c r="G4">
         <v>1</v>
-      </c>
-      <c r="G4">
-        <v>3</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -517,13 +517,13 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D5" s="1">
         <v>45047</v>
@@ -532,69 +532,173 @@
         <v>11</v>
       </c>
       <c r="F5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G5">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="H5">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D6" s="1">
-        <v>45047</v>
+        <v>45077</v>
       </c>
       <c r="E6" t="s">
         <v>10</v>
       </c>
       <c r="F6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G6">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="H6">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D7" s="1">
         <v>45077</v>
       </c>
       <c r="E7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="G7">
+        <v>3</v>
+      </c>
+      <c r="H7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="1">
+        <v>45054</v>
+      </c>
+      <c r="E8" t="s">
         <v>10</v>
       </c>
-      <c r="F7">
-        <v>3</v>
-      </c>
-      <c r="G7">
-        <v>5</v>
-      </c>
-      <c r="H7">
-        <v>5</v>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>2</v>
+      </c>
+      <c r="H8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="1">
+        <v>45047</v>
+      </c>
+      <c r="E9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+      <c r="G9">
+        <v>4</v>
+      </c>
+      <c r="H9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="1">
+        <v>45077</v>
+      </c>
+      <c r="E10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>2</v>
+      </c>
+      <c r="H10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="1">
+        <v>45047</v>
+      </c>
+      <c r="E11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="G11">
+        <v>3</v>
+      </c>
+      <c r="H11">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H7">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H11">
     <sortCondition ref="A2"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ProjectBirdsz/bin/Debug/birds.xlsx
+++ b/ProjectBirdsz/bin/Debug/birds.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guyal\Source\Repos\NewBirds\ProjectBirdsz\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEBF9A90-150D-4FA0-B21F-FC22D92679E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2D99ED6-F0F0-47F7-B25B-DE9A675D1376}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2340" yWindow="2340" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/ProjectBirdsz/bin/Debug/birds.xlsx
+++ b/ProjectBirdsz/bin/Debug/birds.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guyal\Source\Repos\NewBirds\ProjectBirdsz\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2D99ED6-F0F0-47F7-B25B-DE9A675D1376}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C8DEE72-B1C3-4C71-99CC-8D81302AAD23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2340" yWindow="2340" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/ProjectBirdsz/bin/Debug/birds.xlsx
+++ b/ProjectBirdsz/bin/Debug/birds.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guyal\Source\Repos\NewBirds\ProjectBirdsz\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C8DEE72-B1C3-4C71-99CC-8D81302AAD23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4547280-4454-43D3-906E-537FAC08D309}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2340" yWindow="2340" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="18">
   <si>
     <t>SerialNumber</t>
   </si>
@@ -76,6 +76,9 @@
   </si>
   <si>
     <t>Coastal cities</t>
+  </si>
+  <si>
+    <t>Central Australia</t>
   </si>
 </sst>
 </file>
@@ -91,12 +94,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -111,9 +120,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -395,10 +405,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="גיליון1"/>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -412,34 +422,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>15</v>
@@ -448,30 +458,30 @@
         <v>16</v>
       </c>
       <c r="D2" s="1">
-        <v>45077</v>
+        <v>45012</v>
       </c>
       <c r="E2" t="s">
         <v>11</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="G2">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="H2">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D3" s="1">
         <v>45077</v>
@@ -480,24 +490,24 @@
         <v>11</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G3">
         <v>3</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D4" s="1">
         <v>45077</v>
@@ -506,10 +516,10 @@
         <v>11</v>
       </c>
       <c r="F4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -517,48 +527,48 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D5" s="1">
-        <v>45047</v>
+        <v>45077</v>
       </c>
       <c r="E5" t="s">
         <v>11</v>
       </c>
       <c r="F5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G5">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H5">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D6" s="1">
-        <v>45077</v>
+        <v>45047</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G6">
         <v>10</v>
@@ -569,33 +579,33 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D7" s="1">
         <v>45077</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G7">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="H7">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
@@ -604,101 +614,153 @@
         <v>13</v>
       </c>
       <c r="D8" s="1">
-        <v>45054</v>
+        <v>45077</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D9" s="1">
-        <v>45047</v>
+        <v>45054</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H9">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D10" s="1">
-        <v>45077</v>
+        <v>45047</v>
       </c>
       <c r="E10" t="s">
         <v>11</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G10">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="1">
+        <v>45077</v>
+      </c>
+      <c r="E11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>2</v>
+      </c>
+      <c r="H11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
         <v>15</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C12" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D12" s="1">
         <v>45047</v>
       </c>
-      <c r="E11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11">
-        <v>2</v>
-      </c>
-      <c r="G11">
-        <v>3</v>
-      </c>
-      <c r="H11">
-        <v>3</v>
+      <c r="E12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+      <c r="G12">
+        <v>3</v>
+      </c>
+      <c r="H12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="1">
+        <v>45075</v>
+      </c>
+      <c r="E13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13">
+        <v>6</v>
+      </c>
+      <c r="G13">
+        <v>5</v>
+      </c>
+      <c r="H13">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H11">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H13">
     <sortCondition ref="A2"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ProjectBirdsz/bin/Debug/birds.xlsx
+++ b/ProjectBirdsz/bin/Debug/birds.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guyal\Source\Repos\NewBirds\ProjectBirdsz\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4547280-4454-43D3-906E-537FAC08D309}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9A7A8AE-AF08-4C74-A2EE-2FA2F26172FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2340" yWindow="2340" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="18">
   <si>
     <t>SerialNumber</t>
   </si>
@@ -405,7 +405,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="גיליון1"/>
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="L5" sqref="L5"/>
@@ -672,7 +672,7 @@
         <v>11</v>
       </c>
       <c r="F10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G10">
         <v>4</v>
@@ -683,84 +683,185 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D11" s="1">
-        <v>45077</v>
+        <v>45047</v>
       </c>
       <c r="E11" t="s">
         <v>11</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B12" t="s">
         <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D12" s="1">
-        <v>45047</v>
+        <v>45075</v>
       </c>
       <c r="E12" t="s">
         <v>11</v>
       </c>
       <c r="F12">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G12">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H12">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="1">
+        <v>45074</v>
+      </c>
+      <c r="E13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13">
+        <v>3</v>
+      </c>
+      <c r="G13">
+        <v>2</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="1">
+        <v>45082</v>
+      </c>
+      <c r="E14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14">
+        <v>4</v>
+      </c>
+      <c r="G14">
         <v>12</v>
       </c>
-      <c r="B13" t="s">
+      <c r="H14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15">
         <v>15</v>
       </c>
-      <c r="C13" t="s">
+      <c r="B15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="1">
+        <v>45078</v>
+      </c>
+      <c r="F15">
+        <v>3</v>
+      </c>
+      <c r="G15">
+        <v>13</v>
+      </c>
+      <c r="H15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>16</v>
+      </c>
+      <c r="B16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="1">
+        <v>45083</v>
+      </c>
+      <c r="E16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
+      <c r="G16">
+        <v>11</v>
+      </c>
+      <c r="H16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17">
         <v>17</v>
       </c>
-      <c r="D13" s="1">
-        <v>45075</v>
-      </c>
-      <c r="E13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13">
-        <v>6</v>
-      </c>
-      <c r="G13">
-        <v>5</v>
-      </c>
-      <c r="H13">
-        <v>4</v>
+      <c r="B17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="1">
+        <v>45077</v>
+      </c>
+      <c r="E17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>2</v>
+      </c>
+      <c r="H17">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H13">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H17">
     <sortCondition ref="A2"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
